--- a/biology/Botanique/Philodendron/Philodendron.xlsx
+++ b/biology/Botanique/Philodendron/Philodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron, venant du grec philo qui signifie aime et dendron arbre : qui aime les arbres, est un genre de plantes de la famille des Araceae(arums). Originaire de la forêt tropicale d’Amérique centrale et du sud, la plante poussait à l'origine dans des environnements humides et à l’ombre des arbres, d’où son nom. Cette plante comprend plus de 500 espèces. Cet diversité permet d’observer de nombreux changements aux niveaux de la couleur (vert, jaune, rouge-rose), taille, forme (cœur, pointues, ovales) et également sa manière de pousser (plante grimpante, tombante, etc). Certaines d’entre elles sont connues comme étant des plantes ornementales, d’intérieur ou de bureau[1].
-Le philodendron a besoin d’un endroit lumineux pour se développer mais à l’abri du soleil direct. Elle ne demande pas beaucoup d'eau pour survivre et possède des vertus dépolluantes, qui absorbent l’ammoniac ou encore le formaldéhyde ce qui en fait une plante pratique pour les intérieurs[2].
-Il y a des nombreuses symboliques derrière cette plante. Certains disent que la plante est symbolique et reliée à la santé, la prospérité, la gentillesse, la paix ou encore l’amour, notamment à cause de ces couleurs rouge-rose et la forme de ses feuilles. Le peintre Pablo Picasso s'en est d'ailleurs inspiré pour sa sculpture «Femme au jardin»[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron, venant du grec philo qui signifie aime et dendron arbre : qui aime les arbres, est un genre de plantes de la famille des Araceae(arums). Originaire de la forêt tropicale d’Amérique centrale et du sud, la plante poussait à l'origine dans des environnements humides et à l’ombre des arbres, d’où son nom. Cette plante comprend plus de 500 espèces. Cet diversité permet d’observer de nombreux changements aux niveaux de la couleur (vert, jaune, rouge-rose), taille, forme (cœur, pointues, ovales) et également sa manière de pousser (plante grimpante, tombante, etc). Certaines d’entre elles sont connues comme étant des plantes ornementales, d’intérieur ou de bureau.
+Le philodendron a besoin d’un endroit lumineux pour se développer mais à l’abri du soleil direct. Elle ne demande pas beaucoup d'eau pour survivre et possède des vertus dépolluantes, qui absorbent l’ammoniac ou encore le formaldéhyde ce qui en fait une plante pratique pour les intérieurs.
+Il y a des nombreuses symboliques derrière cette plante. Certains disent que la plante est symbolique et reliée à la santé, la prospérité, la gentillesse, la paix ou encore l’amour, notamment à cause de ces couleurs rouge-rose et la forme de ses feuilles. Le peintre Pablo Picasso s'en est d'ailleurs inspiré pour sa sculpture «Femme au jardin».
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Confusion fréquente</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante habituellement commercialisée comme plante d'intérieur sous le nom de « philodendron » ou « philodendron monstera » appartient en fait à l’espèce Monstera deliciosa, aussi appelée communément faux philodendron.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[4] au 31 août 2012 :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List au 31 août 2012 :
 Philodendron acreanum  K.Krause (1913)
 Philodendron acuminatissimum  Engl., (1899)
 Philodendron acutifolium  K.Krause, (1932)
@@ -1111,7 +1127,9 @@
           <t>Espèces aux noms obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en cours)
 Philodendron brevinodum devenu Monstera tuberculata
